--- a/intereses TC NU Apto.xlsx
+++ b/intereses TC NU Apto.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KEVIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kevin\Desktop\Experimentos python\TCIntereses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DBF79F-18FE-4A25-8BF4-5F7D79982AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B4431-951A-4C7A-979E-908523067A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{726E0829-69DB-4DFC-AD2D-12072FBC5E3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{726E0829-69DB-4DFC-AD2D-12072FBC5E3F}"/>
   </bookViews>
   <sheets>
     <sheet name="EA" sheetId="2" r:id="rId1"/>
     <sheet name="Rappi" sheetId="3" r:id="rId2"/>
-    <sheet name="NU" sheetId="4" r:id="rId3"/>
+    <sheet name="NU MAYO" sheetId="4" r:id="rId3"/>
+    <sheet name="NU JUNIO" sheetId="5" r:id="rId4"/>
+    <sheet name="NU PAGOS" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>MES</t>
-  </si>
-  <si>
-    <t>EA</t>
   </si>
   <si>
     <t>Enero</t>
@@ -109,15 +108,24 @@
   <si>
     <t>meses</t>
   </si>
+  <si>
+    <t>EA NU</t>
+  </si>
+  <si>
+    <t>EA RPPI</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000000000000"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -160,24 +168,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -198,9 +213,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -238,7 +253,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -344,7 +359,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -494,115 +509,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA6F649-9B36-426C-8CFB-39AF20ABB866}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>2025</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>2025</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>0.247</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0.24540000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0.25230000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0.25569999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>0.25159999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +641,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,36 +657,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4">
         <v>4160000</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <f>B1/36</f>
         <v>115555.55555555556</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <f>((1+EA!C4)^(1/12))-1</f>
@@ -691,7 +712,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <f>((1+EA!C4)^(1/365))-1</f>
@@ -1209,7 +1230,7 @@
         <v>134750.12248149797</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="6">
         <f>I29/3</f>
@@ -1350,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725AE4C4-BD1A-483B-B68B-D2ED6E282EEA}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,53 +1388,54 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4">
-        <v>4160000</v>
-      </c>
-      <c r="D1" s="7" t="s">
+        <f>4159999+75852+51501</f>
+        <v>4287352</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4">
         <f>B1/B5</f>
-        <v>173333.33333333334</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+        <v>178639.66666666666</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
-        <f>((1+EA!C4)^(1/12))-1</f>
-        <v>1.8456314351867675E-2</v>
+        <f>((1+EA!C6)^(1/12))-1</f>
+        <v>1.9155590685089097E-2</v>
       </c>
       <c r="C3" s="5">
         <f>B1</f>
-        <v>4160000</v>
+        <v>4287352</v>
       </c>
       <c r="D3" s="3">
         <f>B3*$B$1</f>
-        <v>76778.267703769525</v>
+        <v>82126.760034898107</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5">
         <f>IF(C3=0,0,IF($B$2&gt;C3,(C2-$B$2-E2)+D3+E3,($B$2+D3+E3)))</f>
-        <v>250111.60103710287</v>
+        <v>260766.42670156475</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G24" si="0">IF(E3&gt;C3,"Error Abono",IF(C3&lt;$B$2,"Fin Pagos",""))</f>
@@ -1422,24 +1444,24 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
-        <f>((1+EA!C4)^(1/365))-1</f>
-        <v>6.0143219458752561E-4</v>
+        <f>((1+EA!C6)^(1/365))-1</f>
+        <v>6.2401156223823584E-4</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:C26" si="1">IF((C3-F3)&lt;=0,0,C3-$B$2-E3)</f>
-        <v>3986666.6666666665</v>
+        <v>4108712.3333333335</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D26" si="2">C4*$B$3</f>
-        <v>73579.173216112467</v>
+        <v>78704.811700110688</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5">
         <f t="shared" ref="F4:F26" si="3">IF(C4=0,0,IF($B$2&gt;C4,(C3-$B$2-E3)+D4+E4,($B$2+D4+E4)))</f>
-        <v>246912.5065494458</v>
+        <v>257344.47836677736</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -1447,29 +1469,29 @@
       </c>
       <c r="H4" s="5">
         <f>C3-C4</f>
-        <v>173333.33333333349</v>
+        <v>178639.66666666651</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>24</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="1"/>
-        <v>3813333.333333333</v>
+        <v>3930072.666666667</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>70380.078728455395</v>
+        <v>75282.863365323268</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5">
         <f t="shared" si="3"/>
-        <v>243713.41206178872</v>
+        <v>253922.53003198991</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1479,16 +1501,16 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <f t="shared" si="1"/>
-        <v>3639999.9999999995</v>
+        <v>3751433.0000000005</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="2"/>
-        <v>67180.984240798323</v>
+        <v>71860.915030535849</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5">
         <f t="shared" si="3"/>
-        <v>240514.31757413165</v>
+        <v>250500.58169720252</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1498,16 +1520,16 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <f t="shared" si="1"/>
-        <v>3466666.666666666</v>
+        <v>3572793.333333334</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="2"/>
-        <v>63981.889753141266</v>
+        <v>68438.96669574843</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5">
         <f t="shared" si="3"/>
-        <v>237315.22308647461</v>
+        <v>247078.63336241507</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1517,16 +1539,16 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <f t="shared" si="1"/>
-        <v>3293333.3333333326</v>
+        <v>3394153.6666666674</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="2"/>
-        <v>60782.795265484194</v>
+        <v>65017.018360961018</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
         <f t="shared" si="3"/>
-        <v>234116.12859881754</v>
+        <v>243656.68502762768</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1536,16 +1558,16 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="5">
         <f t="shared" si="1"/>
-        <v>3119999.9999999991</v>
+        <v>3215514.0000000009</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="2"/>
-        <v>57583.700777827129</v>
+        <v>61595.070026173598</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5">
         <f t="shared" si="3"/>
-        <v>230917.03411116046</v>
+        <v>240234.73669284026</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1555,16 +1577,16 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="5">
         <f t="shared" si="1"/>
-        <v>2946666.6666666656</v>
+        <v>3036874.3333333344</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="2"/>
-        <v>54384.606290170064</v>
+        <v>58173.121691386179</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5">
         <f t="shared" si="3"/>
-        <v>227717.93962350342</v>
+        <v>236812.78835805284</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
@@ -1574,16 +1596,16 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="5">
         <f t="shared" si="1"/>
-        <v>2773333.3333333321</v>
+        <v>2858234.6666666679</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="2"/>
-        <v>51185.511802513</v>
+        <v>54751.17335659876</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5">
         <f t="shared" si="3"/>
-        <v>224518.84513584635</v>
+        <v>233390.84002326542</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
@@ -1593,16 +1615,16 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="5">
         <f t="shared" si="1"/>
-        <v>2599999.9999999986</v>
+        <v>2679595.0000000014</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="2"/>
-        <v>47986.417314855928</v>
+        <v>51329.225021811348</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <f t="shared" si="3"/>
-        <v>221319.75064818928</v>
+        <v>229968.891688478</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1612,16 +1634,16 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <f t="shared" si="1"/>
-        <v>2426666.6666666651</v>
+        <v>2500955.3333333349</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>44787.322827198863</v>
+        <v>47907.276687023928</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5">
         <f t="shared" si="3"/>
-        <v>218120.65616053221</v>
+        <v>226546.94335369059</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
@@ -1631,16 +1653,16 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <f t="shared" si="1"/>
-        <v>2253333.3333333316</v>
+        <v>2322315.6666666684</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="2"/>
-        <v>41588.228339541798</v>
+        <v>44485.328352236509</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5">
         <f t="shared" si="3"/>
-        <v>214921.56167287513</v>
+        <v>223124.99501890317</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1651,16 +1673,16 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <f t="shared" si="1"/>
-        <v>2079999.9999999984</v>
+        <v>2143676.0000000019</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="2"/>
-        <v>38389.133851884733</v>
+        <v>41063.38001744909</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5">
         <f t="shared" si="3"/>
-        <v>211722.46718521806</v>
+        <v>219703.04668411575</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1670,16 +1692,16 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <f t="shared" si="1"/>
-        <v>1906666.6666666651</v>
+        <v>1965036.3333333351</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="2"/>
-        <v>35190.039364227676</v>
+        <v>37641.43168266167</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5">
         <f t="shared" si="3"/>
-        <v>208523.37269756102</v>
+        <v>216281.09834932833</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
@@ -1689,16 +1711,16 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <f t="shared" si="1"/>
-        <v>1733333.3333333319</v>
+        <v>1786396.6666666684</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="2"/>
-        <v>31990.944876570611</v>
+        <v>34219.483347874244</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5">
         <f t="shared" si="3"/>
-        <v>205324.27820990395</v>
+        <v>212859.15001454091</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1708,16 +1730,16 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <f t="shared" si="1"/>
-        <v>1559999.9999999986</v>
+        <v>1607757.0000000016</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="2"/>
-        <v>28791.850388913546</v>
+        <v>30797.535013086821</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5">
         <f t="shared" si="3"/>
-        <v>202125.1837222469</v>
+        <v>209437.20167975349</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
@@ -1727,16 +1749,16 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <f t="shared" si="1"/>
-        <v>1386666.6666666653</v>
+        <v>1429117.3333333349</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="2"/>
-        <v>25592.755901256485</v>
+        <v>27375.586678299398</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5">
         <f t="shared" si="3"/>
-        <v>198926.08923458983</v>
+        <v>206015.25334496604</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
@@ -1746,16 +1768,16 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <f t="shared" si="1"/>
-        <v>1213333.3333333321</v>
+        <v>1250477.6666666681</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="2"/>
-        <v>22393.661413599424</v>
+        <v>23953.638343511975</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5">
         <f t="shared" si="3"/>
-        <v>195726.99474693276</v>
+        <v>202593.30501017862</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
@@ -1765,16 +1787,16 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="5">
         <f t="shared" si="1"/>
-        <v>1039999.9999999987</v>
+        <v>1071838.0000000014</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="2"/>
-        <v>19194.566925942359</v>
+        <v>20531.690008724552</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5">
         <f t="shared" si="3"/>
-        <v>192527.90025927569</v>
+        <v>199171.3566753912</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
@@ -1784,16 +1806,16 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="5">
         <f t="shared" si="1"/>
-        <v>866666.66666666535</v>
+        <v>893198.33333333477</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="2"/>
-        <v>15995.472438285295</v>
+        <v>17109.741673937133</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5">
         <f t="shared" si="3"/>
-        <v>189328.80577161864</v>
+        <v>195749.40834060378</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
@@ -1803,16 +1825,16 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="5">
         <f t="shared" si="1"/>
-        <v>693333.33333333198</v>
+        <v>714558.66666666814</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="2"/>
-        <v>12796.37795062823</v>
+        <v>13687.793339149714</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5">
         <f t="shared" si="3"/>
-        <v>186129.71128396157</v>
+        <v>192327.46000581636</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
@@ -1822,16 +1844,16 @@
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="5">
         <f t="shared" si="1"/>
-        <v>519999.9999999986</v>
+        <v>535919.00000000151</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="2"/>
-        <v>9597.2834629711651</v>
+        <v>10265.845004362292</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5">
         <f t="shared" si="3"/>
-        <v>182930.6167963045</v>
+        <v>188905.51167102894</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
@@ -1841,16 +1863,16 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="5">
         <f t="shared" si="1"/>
-        <v>346666.66666666523</v>
+        <v>357279.33333333489</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="2"/>
-        <v>6398.1889753141013</v>
+        <v>6843.8966695748722</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5">
         <f t="shared" si="3"/>
-        <v>179731.52230864746</v>
+        <v>185483.56333624152</v>
       </c>
       <c r="G25" t="str">
         <f>IF(E25&gt;C25,"Error Abono",IF(C25&lt;$B$2,"Fin Pagos",""))</f>
@@ -1860,20 +1882,20 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" s="5">
         <f t="shared" si="1"/>
-        <v>173333.33333333189</v>
+        <v>178639.66666666823</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="2"/>
-        <v>3199.094487657037</v>
+        <v>3421.9483347874511</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5">
         <f t="shared" si="3"/>
-        <v>176532.42782098893</v>
+        <v>182061.61500145411</v>
       </c>
       <c r="G26" t="str">
         <f>IF(E26&gt;C26,"Error Abono",IF(C26&lt;$B$2,"Fin Pagos",""))</f>
-        <v>Fin Pagos</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1897,11 +1919,11 @@
       <c r="F29" s="5"/>
       <c r="H29" s="5">
         <f>SUM(F3:F38)</f>
-        <v>5119728.3462971179</v>
+        <v>5313936.5004362268</v>
       </c>
       <c r="I29" s="6">
         <f>(H29/B1)-1</f>
-        <v>0.23070392939834572</v>
+        <v>0.23944488356361382</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -1910,11 +1932,11 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="6">
         <f>I29/(B5/12)</f>
-        <v>0.11535196469917286</v>
+        <v>0.11972244178180691</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -1974,4 +1996,1279 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C653A298-2AF7-4ECD-9B28-2FB5D04C4017}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4">
+        <f>16000+9990+18240+18762+89000</f>
+        <v>151992</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <f>B1/B5</f>
+        <v>6333</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <f>((1+EA!C7)^(1/12))-1</f>
+        <v>1.8877870142888886E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B1</f>
+        <v>151992</v>
+      </c>
+      <c r="D3" s="3">
+        <f>B3*$B$1</f>
+        <v>2869.2852387579678</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <f>IF(C3=0,0,IF($B$2&gt;C3,(C2-$B$2-E2)+D3+E3,($B$2+D3+E3)))</f>
+        <v>9202.2852387579678</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G24" si="0">IF(E3&gt;C3,"Error Abono",IF(C3&lt;$B$2,"Fin Pagos",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <f>((1+EA!C7)^(1/365))-1</f>
+        <v>6.1504586541683004E-4</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C26" si="1">IF((C3-F3)&lt;=0,0,C3-$B$2-E3)</f>
+        <v>145659</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D26" si="2">C4*$B$3</f>
+        <v>2749.7316871430521</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F26" si="3">IF(C4=0,0,IF($B$2&gt;C4,(C3-$B$2-E3)+D4+E4,($B$2+D4+E4)))</f>
+        <v>9082.7316871430521</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" s="5">
+        <f>C3-C4</f>
+        <v>6333</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="1"/>
+        <v>139326</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="2"/>
+        <v>2630.1781355281369</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <f t="shared" si="3"/>
+        <v>8963.1781355281364</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>132993</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="2"/>
+        <v>2510.6245839132216</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <f t="shared" si="3"/>
+        <v>8843.6245839132207</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>126660</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>2391.0710322983064</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <f t="shared" si="3"/>
+        <v>8724.0710322983068</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>120327</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>2271.5174806833911</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <f t="shared" si="3"/>
+        <v>8604.5174806833911</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>113994</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>2151.9639290684759</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <f t="shared" si="3"/>
+        <v>8484.9639290684754</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>107661</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>2032.4103774535604</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <f t="shared" si="3"/>
+        <v>8365.4103774535597</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>101328</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>1912.8568258386451</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <f t="shared" si="3"/>
+        <v>8245.8568258386458</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>94995</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>1793.3032742237297</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <f t="shared" si="3"/>
+        <v>8126.3032742237301</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>88662</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>1673.7497226088144</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>8006.7497226088144</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>82329</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="2"/>
+        <v>1554.1961709938992</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5">
+        <f t="shared" si="3"/>
+        <v>7887.1961709938987</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>75996</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>1434.6426193789839</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>7767.6426193789839</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>69663</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>1315.0890677640684</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>7648.0890677640682</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>63330</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>1195.5355161491532</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>7528.5355161491534</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>56997</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>1075.9819645342379</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>7408.9819645342377</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>50664</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>956.42841291932257</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5">
+        <f t="shared" si="3"/>
+        <v>7289.4284129193229</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>44331</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>836.8748613044072</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5">
+        <f t="shared" si="3"/>
+        <v>7169.8748613044072</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>37998</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>717.32130968949195</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5">
+        <f t="shared" si="3"/>
+        <v>7050.3213096894924</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>31665</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="2"/>
+        <v>597.76775807457659</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
+        <f t="shared" si="3"/>
+        <v>6930.7677580745767</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>25332</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="2"/>
+        <v>478.21420645966128</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5">
+        <f t="shared" si="3"/>
+        <v>6811.214206459661</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>18999</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="2"/>
+        <v>358.66065484474598</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5">
+        <f t="shared" si="3"/>
+        <v>6691.6606548447462</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="5">
+        <f t="shared" si="1"/>
+        <v>12666</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="2"/>
+        <v>239.10710322983064</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>6572.1071032298305</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(E25&gt;C25,"Error Abono",IF(C25&lt;$B$2,"Fin Pagos",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <f t="shared" si="1"/>
+        <v>6333</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="2"/>
+        <v>119.55355161491532</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5">
+        <f t="shared" si="3"/>
+        <v>6452.5535516149157</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(E26&gt;C26,"Error Abono",IF(C26&lt;$B$2,"Fin Pagos",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="H29" s="5">
+        <f>SUM(F3:F38)</f>
+        <v>187858.06548447459</v>
+      </c>
+      <c r="I29" s="6">
+        <f>(H29/B1)-1</f>
+        <v>0.23597337678611097</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="6">
+        <f>I29/(B5/12)</f>
+        <v>0.11798668839305548</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="5"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79140B08-44F7-4488-8498-AE022B45C043}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4">
+        <f>'NU MAYO'!B1+'NU JUNIO'!B1</f>
+        <v>4439344</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4">
+        <f>B1/B5</f>
+        <v>184972.66666666666</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="5">
+        <f>B1</f>
+        <v>4439344</v>
+      </c>
+      <c r="D3" s="3">
+        <f>'NU MAYO'!D3+'NU JUNIO'!D3</f>
+        <v>84996.045273656069</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <f>IF(C3=0,0,IF($B$2&gt;C3,(C2-$B$2-E2)+D3+E3,($B$2+D3+E3)))</f>
+        <v>269968.71194032271</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G24" si="0">IF(E3&gt;C3,"Error Abono",IF(C3&lt;$B$2,"Fin Pagos",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5">
+        <f t="shared" ref="C4:C26" si="1">IF((C3-F3)&lt;=0,0,C3-$B$2-E3)</f>
+        <v>4254371.333333333</v>
+      </c>
+      <c r="D4" s="3">
+        <f>'NU MAYO'!D4+'NU JUNIO'!D4</f>
+        <v>81454.54338725374</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F26" si="2">IF(C4=0,0,IF($B$2&gt;C4,(C3-$B$2-E3)+D4+E4,($B$2+D4+E4)))</f>
+        <v>266427.2100539204</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H4" s="5">
+        <f>C3-C4</f>
+        <v>184972.66666666698</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="1"/>
+        <v>4069398.6666666665</v>
+      </c>
+      <c r="D5" s="3">
+        <f>'NU MAYO'!D5+'NU JUNIO'!D5</f>
+        <v>77913.04150085141</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>262885.70816751808</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <f t="shared" si="1"/>
+        <v>3884426</v>
+      </c>
+      <c r="D6" s="3">
+        <f>'NU MAYO'!D6+'NU JUNIO'!D6</f>
+        <v>74371.539614449066</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>259344.20628111571</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <f t="shared" si="1"/>
+        <v>3699453.3333333335</v>
+      </c>
+      <c r="D7" s="3">
+        <f>'NU MAYO'!D7+'NU JUNIO'!D7</f>
+        <v>70830.037728046736</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>255802.70439471339</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <f t="shared" si="1"/>
+        <v>3514480.666666667</v>
+      </c>
+      <c r="D8" s="3">
+        <f>'NU MAYO'!D8+'NU JUNIO'!D8</f>
+        <v>67288.535841644407</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>252261.20250831108</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <f t="shared" si="1"/>
+        <v>3329508.0000000005</v>
+      </c>
+      <c r="D9" s="3">
+        <f>'NU MAYO'!D9+'NU JUNIO'!D9</f>
+        <v>63747.033955242077</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>248719.70062190873</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <f t="shared" si="1"/>
+        <v>3144535.333333334</v>
+      </c>
+      <c r="D10" s="3">
+        <f>'NU MAYO'!D10+'NU JUNIO'!D10</f>
+        <v>60205.532068839741</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>245178.19873550639</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>2959562.6666666674</v>
+      </c>
+      <c r="D11" s="3">
+        <f>'NU MAYO'!D11+'NU JUNIO'!D11</f>
+        <v>56664.030182437404</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>241636.69684910408</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>2774590.0000000009</v>
+      </c>
+      <c r="D12" s="3">
+        <f>'NU MAYO'!D12+'NU JUNIO'!D12</f>
+        <v>53122.528296035074</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>238095.19496270173</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>2589617.3333333344</v>
+      </c>
+      <c r="D13" s="3">
+        <f>'NU MAYO'!D13+'NU JUNIO'!D13</f>
+        <v>49581.026409632745</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>234553.69307629939</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>2404644.6666666679</v>
+      </c>
+      <c r="D14" s="3">
+        <f>'NU MAYO'!D14+'NU JUNIO'!D14</f>
+        <v>46039.524523230408</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>231012.19118989707</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>2219672.0000000014</v>
+      </c>
+      <c r="D15" s="3">
+        <f>'NU MAYO'!D15+'NU JUNIO'!D15</f>
+        <v>42498.022636828071</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>227470.68930349473</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>2034699.3333333347</v>
+      </c>
+      <c r="D16" s="3">
+        <f>'NU MAYO'!D16+'NU JUNIO'!D16</f>
+        <v>38956.520750425741</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>223929.18741709238</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>1849726.6666666679</v>
+      </c>
+      <c r="D17" s="3">
+        <f>'NU MAYO'!D17+'NU JUNIO'!D17</f>
+        <v>35415.018864023397</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>220387.68553069007</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>1664754.0000000012</v>
+      </c>
+      <c r="D18" s="3">
+        <f>'NU MAYO'!D18+'NU JUNIO'!D18</f>
+        <v>31873.516977621061</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>216846.18364428772</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="5">
+        <f t="shared" si="1"/>
+        <v>1479781.3333333344</v>
+      </c>
+      <c r="D19" s="3">
+        <f>'NU MAYO'!D19+'NU JUNIO'!D19</f>
+        <v>28332.01509121872</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>213304.68175788538</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>1294808.6666666677</v>
+      </c>
+      <c r="D20" s="3">
+        <f>'NU MAYO'!D20+'NU JUNIO'!D20</f>
+        <v>24790.513204816383</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5">
+        <f t="shared" si="2"/>
+        <v>209763.17987148304</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>1109836.0000000009</v>
+      </c>
+      <c r="D21" s="3">
+        <f>'NU MAYO'!D21+'NU JUNIO'!D21</f>
+        <v>21249.011318414043</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>206221.67798508069</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>924863.3333333343</v>
+      </c>
+      <c r="D22" s="3">
+        <f>'NU MAYO'!D22+'NU JUNIO'!D22</f>
+        <v>17707.50943201171</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5">
+        <f t="shared" si="2"/>
+        <v>202680.17609867838</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>739890.66666666768</v>
+      </c>
+      <c r="D23" s="3">
+        <f>'NU MAYO'!D23+'NU JUNIO'!D23</f>
+        <v>14166.007545609375</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5">
+        <f t="shared" si="2"/>
+        <v>199138.67421227603</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>554918.00000000105</v>
+      </c>
+      <c r="D24" s="3">
+        <f>'NU MAYO'!D24+'NU JUNIO'!D24</f>
+        <v>10624.505659207038</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5">
+        <f t="shared" si="2"/>
+        <v>195597.17232587369</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="5">
+        <f t="shared" si="1"/>
+        <v>369945.33333333442</v>
+      </c>
+      <c r="D25" s="3">
+        <f>'NU MAYO'!D25+'NU JUNIO'!D25</f>
+        <v>7083.0037728047027</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
+        <v>192055.67043947137</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(E25&gt;C25,"Error Abono",IF(C25&lt;$B$2,"Fin Pagos",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="5">
+        <f t="shared" si="1"/>
+        <v>184972.66666666776</v>
+      </c>
+      <c r="D26" s="3">
+        <f>'NU MAYO'!D26+'NU JUNIO'!D26</f>
+        <v>3541.5018864023664</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
+        <v>188514.16855306903</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(E26&gt;C26,"Error Abono",IF(C26&lt;$B$2,"Fin Pagos",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27" si="3">IF((C26-F26)&lt;=0,0,C26-$B$2-E26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <f>'NU MAYO'!D27+'NU JUNIO'!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27" si="4">IF(C27=0,0,IF($B$2&gt;C27,(C26-$B$2-E26)+D27+E27,($B$2+D27+E27)))</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(E27&gt;C27,"Error Abono",IF(C27&lt;$B$2,"Fin Pagos",""))</f>
+        <v>Fin Pagos</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="H29" s="5">
+        <f>SUM(F3:F38)</f>
+        <v>5501794.5659207013</v>
+      </c>
+      <c r="I29" s="6">
+        <f>(H29/B1)-1</f>
+        <v>0.23932602788175483</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="6">
+        <f>I29/(B5/12)</f>
+        <v>0.11966301394087742</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="5"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>